--- a/biology/Botanique/Achatocarpaceae/Achatocarpaceae.xlsx
+++ b/biology/Botanique/Achatocarpaceae/Achatocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Achatocarpaceae regroupe des plantes dicotylédones ; elle comprend une dizaine d'espèces réparties en 2 genres.
 Ce sont des petits arbres ou des arbustes, un peu épineux, des régions subtropicales et tropicales d'Amérique.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type  Achatocarpus dérivé du grec αχατος / achatos, agate, et καρπός / karpos, fruit, en référence aux baies blanches translucides de certaines espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Achatocarpus dérivé du grec αχατος / achatos, agate, et καρπός / karpos, fruit, en référence aux baies blanches translucides de certaines espèces.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les classifications antérieures à la classification phylogénétique APG (1998)[2], cette famille faisait partie des Phytolaccaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les classifications antérieures à la classification phylogénétique APG (1998), cette famille faisait partie des Phytolaccaceae.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017)[3], NCBI  (2 fév. 2017)[4] et DELTA Angio           (2 fév. 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017), NCBI  (2 fév. 2017) et DELTA Angio           (2 fév. 2017) :
 genre Achatocarpus (en)
 genre Phaulothamnus (en)
-Selon ITIS      (2 fév. 2017)[6] :
+Selon ITIS      (2 fév. 2017) :
 genre Phaulothamnus (en) Gray</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 fév. 2017)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 fév. 2017) :
 genre Achatocarpus (en)
 Achatocarpus gracilis
 Achatocarpus nigricans
